--- a/ig/ch-emed/ValueSet-ActSubstanceAdminSubstitutionCode.xlsx
+++ b/ig/ch-emed/ValueSet-ActSubstanceAdminSubstitutionCode.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:44:04+01:00</t>
+    <t>2023-12-28T10:07:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
